--- a/IA_CCBS_BANK_SIDE/AccountOther/SaveAccount_Insert.xlsx
+++ b/IA_CCBS_BANK_SIDE/AccountOther/SaveAccount_Insert.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sw\Relational_Files\Interfaces\Interfaces_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sw\Relational_Files\Interfaces_aa\Interfaces\IA_CCBS_BANK_SIDE\AccountOther\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C3B4B9-CF40-4187-A0F6-860D72E91E93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3FA6A0-9611-4F03-B8F0-A27B5F92DD44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{68F28061-2ECD-4B0A-AB1D-3A449686159F}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>Sept 9 2023</t>
-  </si>
-  <si>
     <t>decimal (15,2)</t>
   </si>
   <si>
@@ -778,6 +775,9 @@
   </si>
   <si>
     <t>la_depstfreq</t>
+  </si>
+  <si>
+    <t>Sept 6 2023</t>
   </si>
 </sst>
 </file>
@@ -1105,46 +1105,292 @@
     <cellStyle name="60% - Accent4" xfId="2" builtinId="44"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="24">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1199,130 +1445,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1383,26 +1506,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1525,88 +1628,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1688,85 +1709,14 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1782,35 +1732,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6ACF92C-1104-4C93-8F8B-A938A4312D3B}" name="Table2" displayName="Table2" ref="A1:F95" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A6ACF92C-1104-4C93-8F8B-A938A4312D3B}" name="Table2" displayName="Table2" ref="A1:F95" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <sortState ref="A2:F95">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{85C05364-CF34-480B-84A9-1E752A61B8E7}" name="Seq" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{B74F6632-9589-464E-84C1-0830E8F1F8D8}" name="Description" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{9572A906-3602-4DBD-9459-262F500E1D9A}" name="iApply" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{88CBB51C-2237-4EBC-90F4-9EFEDD4BEC32}" name="Data Type" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{543BB0EE-DFCA-4B94-847F-73C897029E52}" name="Entities" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{2E373EFE-D19B-41E5-92FD-B165DCC3E8F5}" name="Notes" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{85C05364-CF34-480B-84A9-1E752A61B8E7}" name="Seq" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{B74F6632-9589-464E-84C1-0830E8F1F8D8}" name="Description" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{9572A906-3602-4DBD-9459-262F500E1D9A}" name="iApply" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{88CBB51C-2237-4EBC-90F4-9EFEDD4BEC32}" name="Data Type" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{543BB0EE-DFCA-4B94-847F-73C897029E52}" name="Entities" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2E373EFE-D19B-41E5-92FD-B165DCC3E8F5}" name="Notes" dataDxfId="13" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F11F741B-5D22-4BBF-9B93-935C1585CBED}" name="Table22" displayName="Table22" ref="A1:F57" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F11F741B-5D22-4BBF-9B93-935C1585CBED}" name="Table22" displayName="Table22" ref="A1:F57" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:F57" xr:uid="{FE54AB27-2F61-427B-9D73-DA77A59601D2}"/>
   <sortState ref="A2:F57">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F8F1211F-EA34-4B44-896A-D528AAFAE184}" name="Seq" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{03B9C3AE-C4F7-4512-A115-C772590AED2F}" name="Description" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{86EE5336-821C-4C56-8460-1456EB6E1740}" name="iApply" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{33764DB6-8011-4E1D-A09A-295251C6CCE7}" name="Data Type" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{AC1C2596-97D1-445C-B651-3EAD2A6C7064}" name="Entities" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{8FD2DAF4-1939-4C6D-BEB9-074AFC032812}" name="Notes" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{F8F1211F-EA34-4B44-896A-D528AAFAE184}" name="Seq" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{03B9C3AE-C4F7-4512-A115-C772590AED2F}" name="Description" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{86EE5336-821C-4C56-8460-1456EB6E1740}" name="iApply" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{33764DB6-8011-4E1D-A09A-295251C6CCE7}" name="Data Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AC1C2596-97D1-445C-B651-3EAD2A6C7064}" name="Entities" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{8FD2DAF4-1939-4C6D-BEB9-074AFC032812}" name="Notes" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2116,7 +2066,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2095,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2161,7 +2111,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>21</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -2189,7 +2139,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -2205,7 +2155,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -2261,16 +2211,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -2280,13 +2230,13 @@
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="27">
         <v>32</v>
@@ -2297,16 +2247,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -2315,16 +2265,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -2333,16 +2283,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>53</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -2351,16 +2301,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>56</v>
-      </c>
       <c r="E7" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -2369,16 +2319,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -2387,16 +2337,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -2405,16 +2355,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -2423,16 +2373,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -2441,16 +2391,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="28"/>
     </row>
@@ -2459,16 +2409,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="28"/>
     </row>
@@ -2477,16 +2427,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>66</v>
-      </c>
       <c r="D14" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="28"/>
     </row>
@@ -2495,16 +2445,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="28"/>
     </row>
@@ -2514,13 +2464,13 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="27">
         <v>14</v>
@@ -2531,16 +2481,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>69</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="28"/>
     </row>
@@ -2549,16 +2499,16 @@
         <v>24</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="28"/>
     </row>
@@ -2567,16 +2517,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="28"/>
     </row>
@@ -2586,13 +2536,13 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="27">
         <v>14011</v>
@@ -2603,16 +2553,16 @@
         <v>28</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="28"/>
     </row>
@@ -2621,16 +2571,16 @@
         <v>29</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="28"/>
     </row>
@@ -2639,16 +2589,16 @@
         <v>30</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="28"/>
     </row>
@@ -2657,16 +2607,16 @@
         <v>33</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>76</v>
-      </c>
       <c r="D24" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="28"/>
     </row>
@@ -2675,16 +2625,16 @@
         <v>34</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="28"/>
     </row>
@@ -2694,16 +2644,16 @@
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,16 +2661,16 @@
         <v>37</v>
       </c>
       <c r="B27" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>80</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="28"/>
     </row>
@@ -2729,16 +2679,16 @@
         <v>38</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="28"/>
     </row>
@@ -2747,16 +2697,16 @@
         <v>39</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="28"/>
     </row>
@@ -2765,16 +2715,16 @@
         <v>40</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="28"/>
     </row>
@@ -2783,16 +2733,16 @@
         <v>41</v>
       </c>
       <c r="B31" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>29</v>
-      </c>
       <c r="E31" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="28"/>
     </row>
@@ -2801,16 +2751,16 @@
         <v>42</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="28"/>
     </row>
@@ -2819,16 +2769,16 @@
         <v>43</v>
       </c>
       <c r="B33" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="28" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>86</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="28"/>
     </row>
@@ -2837,16 +2787,16 @@
         <v>44</v>
       </c>
       <c r="B34" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>87</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>88</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="28"/>
     </row>
@@ -2855,16 +2805,16 @@
         <v>45</v>
       </c>
       <c r="B35" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>90</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="28"/>
     </row>
@@ -2873,16 +2823,16 @@
         <v>46</v>
       </c>
       <c r="B36" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>92</v>
-      </c>
       <c r="D36" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="28"/>
     </row>
@@ -2891,16 +2841,16 @@
         <v>55</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" s="28"/>
     </row>
@@ -2910,13 +2860,13 @@
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" s="27">
         <v>37</v>
@@ -2927,16 +2877,16 @@
         <v>57</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F39" s="28"/>
     </row>
@@ -2945,16 +2895,16 @@
         <v>58</v>
       </c>
       <c r="B40" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>95</v>
-      </c>
       <c r="D40" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" s="28"/>
     </row>
@@ -2963,16 +2913,16 @@
         <v>59</v>
       </c>
       <c r="B41" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="28" t="s">
-        <v>97</v>
-      </c>
       <c r="D41" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F41" s="28"/>
     </row>
@@ -2981,16 +2931,16 @@
         <v>60</v>
       </c>
       <c r="B42" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>99</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="28"/>
     </row>
@@ -2999,16 +2949,16 @@
         <v>61</v>
       </c>
       <c r="B43" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="28" t="s">
-        <v>101</v>
-      </c>
       <c r="D43" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" s="28"/>
     </row>
@@ -3017,16 +2967,16 @@
         <v>62</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" s="28"/>
     </row>
@@ -3035,16 +2985,16 @@
         <v>63</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" s="28"/>
     </row>
@@ -3053,16 +3003,16 @@
         <v>64</v>
       </c>
       <c r="B46" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>34</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F46" s="28"/>
     </row>
@@ -3071,16 +3021,16 @@
         <v>65</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" s="28"/>
     </row>
@@ -3089,16 +3039,16 @@
         <v>66</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" s="28"/>
     </row>
@@ -3107,16 +3057,16 @@
         <v>67</v>
       </c>
       <c r="B49" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>29</v>
-      </c>
       <c r="E49" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F49" s="28"/>
     </row>
@@ -3125,16 +3075,16 @@
         <v>68</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F50" s="28"/>
     </row>
@@ -3143,16 +3093,16 @@
         <v>69</v>
       </c>
       <c r="B51" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="28" t="s">
-        <v>103</v>
-      </c>
       <c r="D51" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F51" s="28"/>
     </row>
@@ -3161,16 +3111,16 @@
         <v>70</v>
       </c>
       <c r="B52" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="28" t="s">
-        <v>105</v>
-      </c>
       <c r="D52" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F52" s="28"/>
     </row>
@@ -3179,16 +3129,16 @@
         <v>71</v>
       </c>
       <c r="B53" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="28" t="s">
-        <v>107</v>
-      </c>
       <c r="D53" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" s="28"/>
     </row>
@@ -3197,16 +3147,16 @@
         <v>72</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F54" s="28"/>
     </row>
@@ -3215,16 +3165,16 @@
         <v>73</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F55" s="28"/>
     </row>
@@ -3233,16 +3183,16 @@
         <v>75</v>
       </c>
       <c r="B56" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>111</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F56" s="28"/>
     </row>
@@ -3251,16 +3201,16 @@
         <v>78</v>
       </c>
       <c r="B57" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="28" t="s">
-        <v>113</v>
-      </c>
       <c r="D57" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F57" s="28"/>
     </row>
@@ -3269,16 +3219,16 @@
         <v>79</v>
       </c>
       <c r="B58" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="28" t="s">
-        <v>115</v>
-      </c>
       <c r="D58" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F58" s="28"/>
     </row>
@@ -3287,16 +3237,16 @@
         <v>80</v>
       </c>
       <c r="B59" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="28" t="s">
-        <v>117</v>
-      </c>
       <c r="D59" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="28"/>
     </row>
@@ -3305,16 +3255,16 @@
         <v>81</v>
       </c>
       <c r="B60" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="28" t="s">
-        <v>119</v>
-      </c>
       <c r="D60" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F60" s="28"/>
     </row>
@@ -3323,16 +3273,16 @@
         <v>82</v>
       </c>
       <c r="B61" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="28" t="s">
-        <v>121</v>
-      </c>
       <c r="D61" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F61" s="28"/>
     </row>
@@ -3341,16 +3291,16 @@
         <v>83</v>
       </c>
       <c r="B62" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>123</v>
       </c>
       <c r="D62" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F62" s="28"/>
     </row>
@@ -3359,16 +3309,16 @@
         <v>84</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F63" s="28"/>
     </row>
@@ -3377,14 +3327,14 @@
         <v>85</v>
       </c>
       <c r="B64" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="28" t="s">
         <v>125</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>126</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64" s="27">
         <v>99011</v>
@@ -3395,16 +3345,16 @@
         <v>89</v>
       </c>
       <c r="B65" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="28" t="s">
-        <v>128</v>
-      </c>
       <c r="D65" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F65" s="28"/>
     </row>
@@ -3413,16 +3363,16 @@
         <v>90</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F66" s="28"/>
     </row>
@@ -3431,16 +3381,16 @@
         <v>91</v>
       </c>
       <c r="B67" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>131</v>
       </c>
       <c r="D67" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F67" s="28"/>
     </row>
@@ -3449,16 +3399,16 @@
         <v>92</v>
       </c>
       <c r="B68" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="28" t="s">
         <v>132</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>133</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F68" s="28"/>
     </row>
@@ -3467,16 +3417,16 @@
         <v>93</v>
       </c>
       <c r="B69" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>135</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F69" s="28"/>
     </row>
@@ -3485,16 +3435,16 @@
         <v>94</v>
       </c>
       <c r="B70" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>137</v>
       </c>
       <c r="D70" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F70" s="28"/>
     </row>
@@ -3503,16 +3453,16 @@
         <v>95</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E71" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F71" s="28"/>
     </row>
@@ -3521,16 +3471,16 @@
         <v>96</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F72" s="28"/>
     </row>
@@ -3539,16 +3489,16 @@
         <v>97</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F73" s="28"/>
     </row>
@@ -3557,16 +3507,16 @@
         <v>98</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="28"/>
     </row>
@@ -3575,16 +3525,16 @@
         <v>99</v>
       </c>
       <c r="B75" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>141</v>
-      </c>
       <c r="D75" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F75" s="28"/>
     </row>
@@ -3593,16 +3543,16 @@
         <v>100</v>
       </c>
       <c r="B76" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C76" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="D76" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F76" s="28"/>
     </row>
@@ -3611,16 +3561,16 @@
         <v>101</v>
       </c>
       <c r="B77" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="28" t="s">
         <v>144</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>145</v>
       </c>
       <c r="D77" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F77" s="28"/>
     </row>
@@ -3629,16 +3579,16 @@
         <v>102</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F78" s="28"/>
     </row>
@@ -3647,16 +3597,16 @@
         <v>103</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D79" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F79" s="28"/>
     </row>
@@ -3665,16 +3615,16 @@
         <v>104</v>
       </c>
       <c r="B80" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>149</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F80" s="28"/>
     </row>
@@ -3683,16 +3633,16 @@
         <v>105</v>
       </c>
       <c r="B81" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>151</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F81" s="28"/>
     </row>
@@ -3701,16 +3651,16 @@
         <v>106</v>
       </c>
       <c r="B82" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" s="28" t="s">
         <v>152</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>153</v>
       </c>
       <c r="D82" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F82" s="28"/>
     </row>
@@ -3719,16 +3669,16 @@
         <v>107</v>
       </c>
       <c r="B83" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="28" t="s">
         <v>154</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>155</v>
       </c>
       <c r="D83" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F83" s="28"/>
     </row>
@@ -3737,16 +3687,16 @@
         <v>108</v>
       </c>
       <c r="B84" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>157</v>
       </c>
       <c r="D84" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F84" s="28"/>
     </row>
@@ -3755,16 +3705,16 @@
         <v>109</v>
       </c>
       <c r="B85" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="28" t="s">
-        <v>159</v>
-      </c>
       <c r="D85" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E85" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F85" s="28"/>
     </row>
@@ -3773,16 +3723,16 @@
         <v>110</v>
       </c>
       <c r="B86" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="28" t="s">
-        <v>161</v>
-      </c>
       <c r="D86" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F86" s="28"/>
     </row>
@@ -3791,16 +3741,16 @@
         <v>111</v>
       </c>
       <c r="B87" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>163</v>
-      </c>
       <c r="D87" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E87" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F87" s="28"/>
     </row>
@@ -3809,16 +3759,16 @@
         <v>112</v>
       </c>
       <c r="B88" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="C88" s="28" t="s">
-        <v>165</v>
-      </c>
       <c r="D88" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F88" s="28"/>
     </row>
@@ -3827,16 +3777,16 @@
         <v>113</v>
       </c>
       <c r="B89" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="28" t="s">
-        <v>167</v>
-      </c>
       <c r="D89" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E89" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F89" s="28"/>
     </row>
@@ -3845,16 +3795,16 @@
         <v>114</v>
       </c>
       <c r="B90" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C90" s="28" t="s">
-        <v>169</v>
-      </c>
       <c r="D90" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E90" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F90" s="28"/>
     </row>
@@ -3863,16 +3813,16 @@
         <v>115</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F91" s="28"/>
     </row>
@@ -3881,16 +3831,16 @@
         <v>116</v>
       </c>
       <c r="B92" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>171</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>172</v>
       </c>
       <c r="D92" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F92" s="28"/>
     </row>
@@ -3899,16 +3849,16 @@
         <v>117</v>
       </c>
       <c r="B93" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="C93" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="D93" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E93" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F93" s="28"/>
     </row>
@@ -3917,16 +3867,16 @@
         <v>118</v>
       </c>
       <c r="B94" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C94" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="D94" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F94" s="28"/>
     </row>
@@ -3935,16 +3885,16 @@
         <v>119</v>
       </c>
       <c r="B95" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="28" t="s">
         <v>177</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>178</v>
       </c>
       <c r="D95" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F95" s="28"/>
     </row>
@@ -4456,7 +4406,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4510,16 +4460,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F2" s="29"/>
     </row>
@@ -4528,16 +4478,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>180</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>181</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" s="29"/>
     </row>
@@ -4546,16 +4496,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>182</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>183</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" s="29"/>
     </row>
@@ -4564,16 +4514,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>185</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="29"/>
     </row>
@@ -4582,16 +4532,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="29"/>
     </row>
@@ -4600,16 +4550,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F7" s="29"/>
     </row>
@@ -4618,16 +4568,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" s="29"/>
     </row>
@@ -4636,16 +4586,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="29"/>
     </row>
@@ -4654,16 +4604,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="29"/>
     </row>
@@ -4672,16 +4622,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F11" s="29"/>
     </row>
@@ -4690,16 +4640,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F12" s="29"/>
     </row>
@@ -4708,16 +4658,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F13" s="29"/>
     </row>
@@ -4726,16 +4676,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>194</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>195</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F14" s="29"/>
     </row>
@@ -4744,16 +4694,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>29</v>
-      </c>
       <c r="E15" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="29"/>
     </row>
@@ -4762,16 +4712,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F16" s="30"/>
     </row>
@@ -4780,16 +4730,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>199</v>
-      </c>
       <c r="D17" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="30">
         <v>1</v>
@@ -4800,16 +4750,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>201</v>
-      </c>
       <c r="D18" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="29">
         <v>1</v>
@@ -4820,19 +4770,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>202</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>203</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4841,11 +4791,11 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="29"/>
     </row>
@@ -4854,16 +4804,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="29"/>
     </row>
@@ -4872,16 +4822,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>208</v>
-      </c>
       <c r="E22" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="29"/>
     </row>
@@ -4890,16 +4840,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="30"/>
     </row>
@@ -4908,16 +4858,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>37</v>
-      </c>
       <c r="D24" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="29"/>
     </row>
@@ -4926,16 +4876,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>38</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>39</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="29"/>
     </row>
@@ -4944,16 +4894,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>210</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>211</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F26" s="29"/>
     </row>
@@ -4962,16 +4912,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>214</v>
-      </c>
       <c r="E27" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F27" s="29"/>
     </row>
@@ -4980,16 +4930,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>216</v>
-      </c>
       <c r="D28" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F28" s="29"/>
     </row>
@@ -4998,16 +4948,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F29" s="26"/>
     </row>
@@ -5016,16 +4966,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F30" s="26"/>
     </row>
@@ -5034,16 +4984,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>220</v>
-      </c>
       <c r="E31" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="26"/>
     </row>
@@ -5052,16 +5002,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" s="26"/>
     </row>
@@ -5070,16 +5020,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F33" s="26"/>
     </row>
@@ -5088,16 +5038,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F34" s="26"/>
     </row>
@@ -5106,16 +5056,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" s="26"/>
     </row>
@@ -5124,16 +5074,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F36" s="26"/>
     </row>
@@ -5142,16 +5092,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F37" s="26"/>
     </row>
@@ -5160,16 +5110,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F38" s="26"/>
     </row>
@@ -5178,16 +5128,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F39" s="26"/>
     </row>
@@ -5196,16 +5146,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" s="26"/>
     </row>
@@ -5214,16 +5164,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F41" s="26"/>
     </row>
@@ -5232,16 +5182,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="26"/>
     </row>
@@ -5250,16 +5200,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F43" s="26"/>
     </row>
@@ -5268,16 +5218,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F44" s="26"/>
     </row>
@@ -5286,16 +5236,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F45" s="26"/>
     </row>
@@ -5304,16 +5254,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="26"/>
     </row>
@@ -5322,16 +5272,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F47" s="26"/>
     </row>
@@ -5340,16 +5290,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>238</v>
-      </c>
       <c r="E48" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F48" s="26"/>
     </row>
@@ -5358,16 +5308,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F49" s="26"/>
     </row>
@@ -5376,16 +5326,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>241</v>
-      </c>
       <c r="E50" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" s="26"/>
     </row>
@@ -5394,16 +5344,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F51" s="26"/>
     </row>
@@ -5412,16 +5362,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F52" s="26"/>
     </row>
@@ -5430,16 +5380,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F53" s="26"/>
     </row>
@@ -5448,16 +5398,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F54" s="26"/>
     </row>
@@ -5466,16 +5416,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" s="26"/>
     </row>
@@ -5484,16 +5434,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F56" s="26"/>
     </row>
@@ -5502,16 +5452,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F57" s="26"/>
     </row>
@@ -6023,11 +5973,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C58:D1048576 C1">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C57">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
